--- a/Documentos/PseudoHomologacao.xlsx
+++ b/Documentos/PseudoHomologacao.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shoyo\Desktop\VACCINUs\VACCINUS-28_10\Projeto-Vaccinus\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shoyo\Documents\BandTEC\1 Semestre\Grupo 11\Projeto-Vaccinus\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9216D789-B68E-459B-B43E-5A5C00C4E129}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8469281B-78E2-4D90-A238-E68FC9382219}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D035476E-9C05-4EEC-A8D4-9F75D5133B87}"/>
   </bookViews>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
-    <t>(Pre)Homologação</t>
-  </si>
-  <si>
     <t>O que fazer</t>
   </si>
   <si>
@@ -130,6 +127,9 @@
   </si>
   <si>
     <t>Geração de Relatorio pelo site (PDF, algo do tipo sei la) Enviar para a Nuvem</t>
+  </si>
+  <si>
+    <t>Homologação</t>
   </si>
 </sst>
 </file>
@@ -168,12 +168,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -190,11 +205,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -510,9 +525,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A6D5B4-C9CE-4C8D-8375-F51F931148EF}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="202" zoomScaleNormal="202" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="202" zoomScaleNormal="202" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -525,100 +540,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
+      <c r="A1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="5"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -626,40 +649,36 @@
         <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>29</v>
-      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
@@ -672,10 +691,6 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
